--- a/docs/data/membrane_potential_2.xlsx
+++ b/docs/data/membrane_potential_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Introduction.to.R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3964753-D4D9-AC4F-9AF8-FE4C906D8A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA40ACF2-96C7-EC49-9A11-62E4D2F726E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="3560" windowWidth="26440" windowHeight="15440" xr2:uid="{65F610D7-3B13-4D45-AE34-003B312018CC}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>Replicate</t>
   </si>
   <si>
-    <t>Measurement1</t>
-  </si>
-  <si>
-    <t>Measurement2</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Measurement3</t>
+  </si>
+  <si>
+    <t>Measurement4</t>
   </si>
 </sst>
 </file>
@@ -447,259 +447,259 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3">
+        <v>1.2</v>
+      </c>
+      <c r="D3">
         <v>1.4</v>
-      </c>
-      <c r="D3">
-        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="D5">
         <v>2.7</v>
-      </c>
-      <c r="D5">
-        <v>2.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7">
         <v>2.4</v>
-      </c>
-      <c r="D7">
-        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2.2000000000000002</v>
       </c>
       <c r="D8">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D12">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D13">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14">
+        <v>2.8</v>
+      </c>
+      <c r="D14">
         <v>2.7</v>
-      </c>
-      <c r="D14">
-        <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D15">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D17">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D18">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D19">
         <v>2.2000000000000002</v>
@@ -707,30 +707,30 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D20">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
